--- a/docs/Schedule.xlsx
+++ b/docs/Schedule.xlsx
@@ -452,14 +452,6 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>校企毕业设计
-D3310(将军路)
-第1,2,3,4,5,6,7,8,9,10,11,12周
-星期三 第5,6节</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>集成电路计算机辅助分析
@@ -510,9 +502,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>

--- a/docs/Schedule.xlsx
+++ b/docs/Schedule.xlsx
@@ -471,6 +471,13 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>体育（七）
+第6,7,8,9,10周
+星期三 第7,8节</t>
+        </is>
+      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
           <t>科技学术讲座
@@ -502,11 +509,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/Schedule.xlsx
+++ b/docs/Schedule.xlsx
@@ -474,6 +474,7 @@
       <c r="D9" s="2" t="inlineStr">
         <is>
           <t>体育（七）
+党伟利
 第6,7,8,9,10周
 星期三 第7,8节</t>
         </is>

--- a/docs/Schedule.xlsx
+++ b/docs/Schedule.xlsx
@@ -27,17 +27,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,12 +47,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -378,7 +370,7 @@
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Semester year: 2020-2021  Semester: 1  ID: 041700528</t>
+          <t>Semester year: 2020-2021  Semester: 2  ID: 041700528</t>
         </is>
       </c>
     </row>
@@ -433,15 +425,6 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>集成电路计算机辅助分析
-夏永君
-D3414(将军路)
-第1,2,3,4,5,6周
-星期一 第3,4节</t>
-        </is>
-      </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -452,15 +435,6 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>集成电路计算机辅助分析
-夏永君
-D3414(将军路)
-第1,2,3,4,5,6周
-星期四 第5,6节</t>
-        </is>
-      </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -471,23 +445,6 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>体育（七）
-党伟利
-第6,7,8,9,10周
-星期三 第7,8节</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>科技学术讲座
-牛臻弋
-4101(将军路)
-第1,2,3,4,5,6,7,8,9周
-星期四 第7,8节</t>
-        </is>
-      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -510,12 +467,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
